--- a/คะแนน/react-project-scroll.xlsx
+++ b/คะแนน/react-project-scroll.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fall Ceators\Desktop\React Course\[Git]Project-React-Course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fall Ceators\Desktop\React Course\[Git]Project-React-Course\คะแนน\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Problem
 </t>
@@ -51,15 +51,9 @@
 (Search) </t>
   </si>
   <si>
-    <t>Require  (50 Point)</t>
-  </si>
-  <si>
     <t>Business (10 Point)</t>
   </si>
   <si>
-    <t>Have CRUD cycle with frtd (10 Point)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Group </t>
   </si>
   <si>
@@ -73,11 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Project React.js Programming (80 Point - Collect 40 Point)</t>
-  </si>
-  <si>
-    <t>Responsive (PC/Mobile
-/Tablet) 
-(5 Point)</t>
   </si>
   <si>
     <t>Git for project 
@@ -89,9 +78,6 @@
   </si>
   <si>
     <t>Optional   (10 Point)</t>
-  </si>
-  <si>
-    <t>Question  (10 Point)</t>
   </si>
   <si>
     <t>WOW  (10 Point)</t>
@@ -139,8 +125,18 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Use React + Firebase Realtime Database inside project 
+    <t>Have CRUD cycle with FRTD (10 Point)</t>
+  </si>
+  <si>
+    <t>Responsive (PC/Mobile
+/Tablet) 
 (10 Point)</t>
+  </si>
+  <si>
+    <t>Require  (40 Point)</t>
+  </si>
+  <si>
+    <t>Question  (20 Point)</t>
   </si>
 </sst>
 </file>
@@ -1112,10 +1108,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G23"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -1127,27 +1123,26 @@
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" customWidth="1"/>
-    <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="24" max="24" width="32.85546875" customWidth="1"/>
-    <col min="25" max="25" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" customWidth="1"/>
+    <col min="22" max="22" width="22" customWidth="1"/>
+    <col min="23" max="23" width="32.85546875" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="41.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:24" ht="41.25" customHeight="1" thickBot="1">
       <c r="A1" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1172,20 +1167,19 @@
       <c r="V1" s="20"/>
       <c r="W1" s="20"/>
       <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-    </row>
-    <row r="2" spans="1:25" ht="33.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="2" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
       <c r="A2" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -1195,88 +1189,84 @@
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
       <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="29" t="s">
-        <v>18</v>
-      </c>
+      <c r="M2" s="50"/>
+      <c r="N2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="30"/>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
       <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="31.5" customHeight="1">
+      <c r="T2" s="31"/>
+      <c r="U2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="33"/>
+      <c r="W2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="31.5" customHeight="1">
       <c r="A3" s="24"/>
       <c r="B3" s="18"/>
       <c r="C3" s="27"/>
       <c r="D3" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="42" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
       <c r="J3" s="44"/>
       <c r="K3" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="35" t="s">
+      <c r="U3" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="46"/>
-    </row>
-    <row r="4" spans="1:25" ht="41.25" customHeight="1" thickBot="1">
+      <c r="X3" s="46"/>
+    </row>
+    <row r="4" spans="1:24" ht="41.25" customHeight="1" thickBot="1">
       <c r="A4" s="25"/>
       <c r="B4" s="19"/>
       <c r="C4" s="28"/>
@@ -1302,22 +1292,21 @@
         <v>4</v>
       </c>
       <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="39"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="22"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="34"/>
       <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="47"/>
-    </row>
-    <row r="5" spans="1:25" ht="21.95" customHeight="1">
+      <c r="W4" s="22"/>
+      <c r="X4" s="47"/>
+    </row>
+    <row r="5" spans="1:24" ht="21.95" customHeight="1">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -1343,10 +1332,9 @@
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="5"/>
-    </row>
-    <row r="6" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" ht="21.95" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1370,10 +1358,9 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" ht="21.95" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1397,10 +1384,9 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" ht="21.95" customHeight="1">
       <c r="A8" s="13">
         <v>2</v>
       </c>
@@ -1426,10 +1412,9 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" ht="21.95" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1453,10 +1438,9 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" ht="21.95" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1480,10 +1464,9 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24" ht="21.95" customHeight="1">
       <c r="A11" s="13">
         <v>3</v>
       </c>
@@ -1509,10 +1492,9 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" ht="21.95" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1536,10 +1518,9 @@
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" ht="21.95" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1563,10 +1544,9 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" ht="21.95" customHeight="1">
       <c r="A14" s="13">
         <v>4</v>
       </c>
@@ -1592,10 +1572,9 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24" ht="21.95" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1619,10 +1598,9 @@
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24" ht="21.95" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1646,10 +1624,9 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24" ht="21.95" customHeight="1">
       <c r="A17" s="13">
         <v>5</v>
       </c>
@@ -1675,10 +1652,9 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24" ht="21.95" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1702,10 +1678,9 @@
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="1:24" ht="21.95" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1729,10 +1704,9 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:24" ht="21.95" customHeight="1">
       <c r="A20" s="13">
         <v>6</v>
       </c>
@@ -1758,10 +1732,9 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24" ht="21.95" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1785,10 +1758,9 @@
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="1:24" ht="21.95" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1812,10 +1784,9 @@
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" ht="21.95" customHeight="1">
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="1:24" ht="21.95" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1839,35 +1810,39 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="7"/>
+      <c r="X23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="156">
+  <mergeCells count="149">
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="W3:W4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:J3"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="D2:M2"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="D5:D7"/>
@@ -1886,6 +1861,12 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="H5:H7"/>
@@ -1904,104 +1885,86 @@
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L20:L23"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="K14:K16"/>
     <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N20:N23"/>
     <mergeCell ref="M5:M7"/>
     <mergeCell ref="M8:M10"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="M14:M16"/>
     <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="P20:P23"/>
     <mergeCell ref="O5:O7"/>
     <mergeCell ref="O8:O10"/>
     <mergeCell ref="O11:O13"/>
     <mergeCell ref="O14:O16"/>
     <mergeCell ref="O17:O19"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="R20:R23"/>
     <mergeCell ref="Q5:Q7"/>
     <mergeCell ref="Q8:Q10"/>
     <mergeCell ref="Q11:Q13"/>
     <mergeCell ref="Q14:Q16"/>
     <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="Q20:Q23"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="S20:S23"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="T20:T23"/>
     <mergeCell ref="S5:S7"/>
     <mergeCell ref="S8:S10"/>
     <mergeCell ref="S11:S13"/>
     <mergeCell ref="S14:S16"/>
     <mergeCell ref="S17:S19"/>
-    <mergeCell ref="S20:S23"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="T20:T23"/>
+    <mergeCell ref="W20:W23"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="U20:U23"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="V20:V23"/>
     <mergeCell ref="U5:U7"/>
     <mergeCell ref="U8:U10"/>
     <mergeCell ref="U11:U13"/>
     <mergeCell ref="U14:U16"/>
     <mergeCell ref="U17:U19"/>
-    <mergeCell ref="U20:U23"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="X20:X23"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="V20:V23"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="W20:W23"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="V17:V19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/คะแนน/react-project-scroll.xlsx
+++ b/คะแนน/react-project-scroll.xlsx
@@ -66,9 +66,6 @@
     <t xml:space="preserve">Name </t>
   </si>
   <si>
-    <t xml:space="preserve"> Project React.js Programming (80 Point - Collect 40 Point)</t>
-  </si>
-  <si>
     <t>Git for project 
 (5 Point)</t>
   </si>
@@ -136,7 +133,10 @@
     <t>Require  (40 Point)</t>
   </si>
   <si>
-    <t>Question  (20 Point)</t>
+    <t>Question  (40 Point)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Project React.js Programming (100 Point - Collect 80-20 Point)</t>
   </si>
 </sst>
 </file>
@@ -652,6 +652,114 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,128 +769,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1110,8 +1110,8 @@
   </sheetPr>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F4" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -1121,7 +1121,7 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
@@ -1141,135 +1141,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+    </row>
+    <row r="2" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="25"/>
+      <c r="W2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="31.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-    </row>
-    <row r="2" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="45" t="s">
+      <c r="M3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="21" t="s">
+      <c r="Q3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="V3" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="46"/>
+      <c r="X3" s="38"/>
     </row>
     <row r="4" spans="1:24" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,552 +1291,631 @@
       <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="47"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="39"/>
     </row>
     <row r="5" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A5" s="16">
+      <c r="A5" s="52">
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
       <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A8" s="13">
+      <c r="A8" s="48">
         <v>2</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A10" s="15"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A11" s="13">
+      <c r="A11" s="48">
         <v>3</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A12" s="14"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A13" s="15"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
       <c r="X13" s="4"/>
     </row>
     <row r="14" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A14" s="13">
+      <c r="A14" s="48">
         <v>4</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
       <c r="X14" s="4"/>
     </row>
     <row r="15" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A15" s="14"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
       <c r="X15" s="4"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A16" s="15"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A17" s="13">
+      <c r="A17" s="48">
         <v>5</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A18" s="14"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A19" s="15"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A20" s="13">
+      <c r="A20" s="48">
         <v>6</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
       <c r="X20" s="4"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A21" s="14"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A22" s="14"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
       <c r="X22" s="4"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="A23" s="15"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
       <c r="X23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="W20:W23"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="W17:W19"/>
+    <mergeCell ref="U20:U23"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="V20:V23"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="S20:S23"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="T20:T23"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="F17:F19"/>
@@ -1861,108 +1940,29 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="Q20:Q23"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="S20:S23"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="T20:T23"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="W20:W23"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="W14:W16"/>
-    <mergeCell ref="W17:W19"/>
-    <mergeCell ref="U20:U23"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="V20:V23"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
